--- a/src/test/TestData/RegisterTestDataAll.xlsx
+++ b/src/test/TestData/RegisterTestDataAll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19377BDA-BFD2-4512-9C51-20B8287DE808}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555B191-45F5-45DC-A0F1-1AEE74D3C19F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>alertvata@mailru</t>
   </si>
@@ -97,9 +97,6 @@
     <t>More15Symbols1111</t>
   </si>
   <si>
-    <t>More20SymbolsRiRiRiRi</t>
-  </si>
-  <si>
     <t>4Sls</t>
   </si>
   <si>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>More21Symbols11111SSSs</t>
+  </si>
+  <si>
+    <t>Test Data 11</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +519,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -597,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,23 +614,35 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
